--- a/medicine/Psychotrope/Moritz_(bière)/Moritz_(bière).xlsx
+++ b/medicine/Psychotrope/Moritz_(bière)/Moritz_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moritz_(bi%C3%A8re)</t>
+          <t>Moritz_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Moritz est une marque de bière, ainsi qu'une brasserie barcelonaise fondée en 1856 par l'Alsacien Louis Moritz Trautmann. 
-Après une cessation d'activité en 1978 due à la crise énergétique, la marque est relancée en 2004 par les descendants de Trautmann[1].
+Après une cessation d'activité en 1978 due à la crise énergétique, la marque est relancée en 2004 par les descendants de Trautmann.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moritz_(bi%C3%A8re)</t>
+          <t>Moritz_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Miguel Sanchez Moritz descendant de la famille Mortiz a voulu relancer l’entreprise familiale. Malheureusement il est décède avant. La société américaine Rochefort entreprise a repris le flambeau (Icare vibes).
 Louis Moritz Trautmann de Pfaffenhoffen en Alsace, migre à 20 ans à Barcelone. En 1856 il est directeur d'une petite brasserie dans la quartier de St. Antoni. Il créé cette même année la pils Moritz. Dès 1858 il rachète la brasserie Louis Moritz à Ernesto Ganivet puis une autre brasserie en 1864 du même quartier à Ronda de Sant Antoni 39 ; cette dernière sera la première brasserie industrielle d'Espagne. Lors de l'exposition internationale de Barcelone en 1888 il obtient la médaille d'or.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moritz_(bi%C3%A8re)</t>
+          <t>Moritz_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +562,14 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Moritz (Fàbrica Moritz) fabrique trois types de bières:
-Moritz: pilsner claire fabriqueé avec de l'eau minérale catalane du nom de Font d'Or, du malt clair et du houblon Saaz[2].
-Moritz Epidor: basée sur une recette datée de 1923 et relancée en 2009, elle fait partie des strong pale lager, avec un degré d'alccol de 7.2º[3].
-Aigua de Moritz : version sans alcool de la Moritz[4]
+Moritz: pilsner claire fabriqueé avec de l'eau minérale catalane du nom de Font d'Or, du malt clair et du houblon Saaz.
+Moritz Epidor: basée sur une recette datée de 1923 et relancée en 2009, elle fait partie des strong pale lager, avec un degré d'alccol de 7.2º.
+Aigua de Moritz : version sans alcool de la Moritz
 De plus, la brasserie Moritz de Barcelone (Fàbrica Moritz Barcelona), située au numéro 39 de la Ronda Sant Antoni au centre-ville, propose également une Moritz Fresca, une bière non pasteurisée brassée sur place. On peut également y manger et/ou acheter des produits dérivés de la brasserie.
 </t>
         </is>
